--- a/raw-data-prep/raw_data/Note_sheet_CH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_CH.xlsx
@@ -36,24 +36,6 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 5</t>
-  </si>
-  <si>
-    <t>Game 6</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -252,7 +234,25 @@
     <t xml:space="preserve">A distraction assignment form was misfiled in the essay eval folder. I accidentally grabbed one and placed infront of participant with confed essay. I quickly noticed and grabbed it before participant could read or grab it, said "whoops wrong paper. Brb." Essay had certain parts underlined in red? Subject commented on it in evaluation. Study about?: Aggressiveness with video. Suspicious? Nothing seemed suspicious. </t>
   </si>
   <si>
-    <t>Good Session</t>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>Good.Session</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,28 +619,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="M1" t="s">
         <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -648,10 +648,10 @@
         <v>41554</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>45</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -690,10 +690,10 @@
         <v>41554</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>44</v>
@@ -723,7 +723,7 @@
         <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -731,10 +731,10 @@
         <v>41555</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>46</v>
@@ -764,10 +764,10 @@
         <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -775,10 +775,10 @@
         <v>41555</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -816,10 +816,10 @@
         <v>41555</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>47</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -860,10 +860,10 @@
         <v>41555</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>48</v>
@@ -893,7 +893,7 @@
         <v>113</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -901,10 +901,10 @@
         <v>41556</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>51</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -945,10 +945,10 @@
         <v>41555</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -978,10 +978,10 @@
         <v>139</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -989,10 +989,10 @@
         <v>41556</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>53</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1030,10 +1030,10 @@
         <v>41556</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>52</v>
@@ -1063,10 +1063,10 @@
         <v>92</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1074,10 +1074,10 @@
         <v>41557</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>54</v>
@@ -1107,10 +1107,10 @@
         <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1118,10 +1118,10 @@
         <v>41557</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>55</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1159,10 +1159,10 @@
         <v>41557</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>57</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1203,10 +1203,10 @@
         <v>41557</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>56</v>
@@ -1236,10 +1236,10 @@
         <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1247,10 +1247,10 @@
         <v>41557</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>58</v>
@@ -1280,10 +1280,10 @@
         <v>71</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1291,10 +1291,10 @@
         <v>41557</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>59</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1335,10 +1335,10 @@
         <v>41557</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -1368,10 +1368,10 @@
         <v>219</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1379,10 +1379,10 @@
         <v>41557</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>61</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1423,10 +1423,10 @@
         <v>41559</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>62</v>
@@ -1456,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1467,10 +1467,10 @@
         <v>41559</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>64</v>
@@ -1500,10 +1500,10 @@
         <v>76</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1511,10 +1511,10 @@
         <v>41559</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>66</v>
@@ -1544,10 +1544,10 @@
         <v>115</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1555,10 +1555,10 @@
         <v>41559</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>63</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1599,10 +1599,10 @@
         <v>41559</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24">
         <v>65</v>
@@ -1632,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1643,10 +1643,10 @@
         <v>41561</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>67</v>
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1687,10 +1687,10 @@
         <v>41561</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>68</v>
@@ -1720,7 +1720,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1728,10 +1728,10 @@
         <v>41561</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>69</v>
@@ -1761,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1772,10 +1772,10 @@
         <v>41562</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>71</v>
@@ -1805,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1816,10 +1816,10 @@
         <v>41562</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>70</v>
@@ -1849,10 +1849,10 @@
         <v>88</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1860,10 +1860,10 @@
         <v>41562</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>73</v>
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1904,10 +1904,10 @@
         <v>41562</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>72</v>
@@ -1937,10 +1937,10 @@
         <v>76</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1948,10 +1948,10 @@
         <v>41563</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>74</v>
@@ -1981,10 +1981,10 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1992,10 +1992,10 @@
         <v>41563</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>75</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N33" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2036,10 +2036,10 @@
         <v>41563</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>76</v>
@@ -2069,10 +2069,10 @@
         <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2080,10 +2080,10 @@
         <v>41563</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>77</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2121,10 +2121,10 @@
         <v>41564</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D36">
         <v>78</v>
@@ -2154,10 +2154,10 @@
         <v>50</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2165,10 +2165,10 @@
         <v>41564</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>80</v>
@@ -2198,10 +2198,10 @@
         <v>115</v>
       </c>
       <c r="M37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2209,10 +2209,10 @@
         <v>41564</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D38">
         <v>79</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2253,10 +2253,10 @@
         <v>41568</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>82</v>
@@ -2286,7 +2286,7 @@
         <v>121</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2294,10 +2294,10 @@
         <v>41568</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>81</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2335,10 +2335,10 @@
         <v>41568</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>83</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2379,10 +2379,10 @@
         <v>41568</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>84</v>
@@ -2412,10 +2412,10 @@
         <v>106</v>
       </c>
       <c r="M42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N42" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2423,10 +2423,10 @@
         <v>41569</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>85</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N43" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2467,10 +2467,10 @@
         <v>41569</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>86</v>
@@ -2500,10 +2500,10 @@
         <v>74</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N44" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2511,10 +2511,10 @@
         <v>41569</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>87</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2552,10 +2552,10 @@
         <v>41570</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D46">
         <v>88</v>
@@ -2585,10 +2585,10 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2596,10 +2596,10 @@
         <v>41570</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D47">
         <v>90</v>
@@ -2629,10 +2629,10 @@
         <v>114</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2640,10 +2640,10 @@
         <v>41570</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>89</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2681,10 +2681,10 @@
         <v>41570</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <v>91</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2722,10 +2722,10 @@
         <v>41570</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>92</v>
@@ -2755,10 +2755,10 @@
         <v>323</v>
       </c>
       <c r="M50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2766,10 +2766,10 @@
         <v>41571</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>93</v>
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N51" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2810,10 +2810,10 @@
         <v>41571</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D52">
         <v>94</v>
@@ -2843,10 +2843,10 @@
         <v>70</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N52" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Note_sheet_CH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_CH.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="11310"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$52</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -36,9 +39,6 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>JC</t>
   </si>
   <si>
@@ -57,9 +57,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No/Maybe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Said if he received an essay with the opposite stance on abortion he figured it might be fake. Feedback was too harsh; didn't think anybody would actually wrote it was the worst essay. </t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Participant turned off iMac accidentally after distraction assignment, apologized and felt bad. I said, okay it's no problem, and tried to log in. It had issues getting back in, but contributed sense of "running low on time"</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Melissa</t>
   </si>
   <si>
@@ -234,32 +228,35 @@
     <t xml:space="preserve">A distraction assignment form was misfiled in the essay eval folder. I accidentally grabbed one and placed infront of participant with confed essay. I quickly noticed and grabbed it before participant could read or grab it, said "whoops wrong paper. Brb." Essay had certain parts underlined in red? Subject commented on it in evaluation. Study about?: Aggressiveness with video. Suspicious? Nothing seemed suspicious. </t>
   </si>
   <si>
-    <t>Game.1</t>
-  </si>
-  <si>
-    <t>Game.2</t>
-  </si>
-  <si>
-    <t>Game.3</t>
-  </si>
-  <si>
-    <t>Game.4</t>
-  </si>
-  <si>
-    <t>Game.5</t>
-  </si>
-  <si>
-    <t>Game.6</t>
-  </si>
-  <si>
-    <t>Good.Session</t>
+    <t>Game 2</t>
+  </si>
+  <si>
+    <t>Game 4</t>
+  </si>
+  <si>
+    <t>Game 6</t>
+  </si>
+  <si>
+    <t>Good Session</t>
+  </si>
+  <si>
+    <t>Notes_t</t>
+  </si>
+  <si>
+    <t>Game 1</t>
+  </si>
+  <si>
+    <t>Game 3</t>
+  </si>
+  <si>
+    <t>Game 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +378,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -415,6 +413,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,16 +589,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,39 +619,39 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
         <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41554</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>45</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41554</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>44</v>
@@ -723,18 +723,18 @@
         <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41555</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>46</v>
@@ -764,21 +764,21 @@
         <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41555</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -808,18 +808,18 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41555</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>47</v>
@@ -849,21 +849,21 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41555</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>48</v>
@@ -893,18 +893,18 @@
         <v>113</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41556</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>51</v>
@@ -934,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41555</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -978,21 +978,21 @@
         <v>139</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41556</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>53</v>
@@ -1022,18 +1022,18 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41556</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>52</v>
@@ -1063,21 +1063,21 @@
         <v>92</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41557</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>54</v>
@@ -1107,21 +1107,21 @@
         <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41557</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>55</v>
@@ -1151,18 +1151,18 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41557</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>57</v>
@@ -1192,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41557</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>56</v>
@@ -1236,21 +1236,21 @@
         <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41557</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>58</v>
@@ -1280,21 +1280,21 @@
         <v>71</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41557</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>59</v>
@@ -1324,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41557</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -1368,21 +1368,21 @@
         <v>219</v>
       </c>
       <c r="M18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41557</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>61</v>
@@ -1412,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41559</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>62</v>
@@ -1456,21 +1456,21 @@
         <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41559</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>64</v>
@@ -1500,21 +1500,21 @@
         <v>76</v>
       </c>
       <c r="M21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41559</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>66</v>
@@ -1544,21 +1544,21 @@
         <v>115</v>
       </c>
       <c r="M22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41559</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>63</v>
@@ -1588,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41559</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>65</v>
@@ -1632,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41561</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>67</v>
@@ -1676,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41561</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>68</v>
@@ -1720,18 +1720,18 @@
         <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41561</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>69</v>
@@ -1761,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41562</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>71</v>
@@ -1805,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41562</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>70</v>
@@ -1849,21 +1849,21 @@
         <v>88</v>
       </c>
       <c r="M29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41562</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>73</v>
@@ -1893,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41562</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>72</v>
@@ -1937,21 +1937,21 @@
         <v>76</v>
       </c>
       <c r="M31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41563</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>74</v>
@@ -1981,21 +1981,21 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41563</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>75</v>
@@ -2025,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41563</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>76</v>
@@ -2069,21 +2069,21 @@
         <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41563</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>77</v>
@@ -2113,18 +2113,18 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41564</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36">
         <v>78</v>
@@ -2154,21 +2154,21 @@
         <v>50</v>
       </c>
       <c r="M36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41564</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>80</v>
@@ -2198,21 +2198,21 @@
         <v>115</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41564</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>79</v>
@@ -2242,21 +2242,21 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41568</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>82</v>
@@ -2286,18 +2286,18 @@
         <v>121</v>
       </c>
       <c r="M39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41568</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>81</v>
@@ -2327,18 +2327,18 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41568</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>83</v>
@@ -2368,21 +2368,21 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41568</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>84</v>
@@ -2412,21 +2412,21 @@
         <v>106</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41569</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>85</v>
@@ -2456,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41569</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>86</v>
@@ -2500,21 +2500,21 @@
         <v>74</v>
       </c>
       <c r="M44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41569</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>87</v>
@@ -2544,18 +2544,18 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41570</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>88</v>
@@ -2585,21 +2585,21 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41570</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>90</v>
@@ -2629,21 +2629,21 @@
         <v>114</v>
       </c>
       <c r="M47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41570</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>89</v>
@@ -2673,18 +2673,18 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41570</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>91</v>
@@ -2714,18 +2714,18 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41570</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>92</v>
@@ -2755,21 +2755,21 @@
         <v>323</v>
       </c>
       <c r="M50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>41571</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <v>93</v>
@@ -2799,21 +2799,21 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41571</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D52">
         <v>94</v>
@@ -2843,36 +2843,44 @@
         <v>70</v>
       </c>
       <c r="M52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N52">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="."/>
+        <filter val="No/Maybe"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_CH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_CH.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard\Documents\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="11310"/>
   </bookViews>
@@ -153,9 +158,6 @@
     <t>6:15PM</t>
   </si>
   <si>
-    <t xml:space="preserve">Mizzou's football quarterback. Good session. </t>
-  </si>
-  <si>
     <t>JH</t>
   </si>
   <si>
@@ -250,6 +252,9 @@
   </si>
   <si>
     <t>Game 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good session. </t>
   </si>
 </sst>
 </file>
@@ -299,6 +304,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -346,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,11 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41554</v>
       </c>
@@ -685,7 +692,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41554</v>
       </c>
@@ -726,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41555</v>
       </c>
@@ -770,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41555</v>
       </c>
@@ -811,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41555</v>
       </c>
@@ -855,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41555</v>
       </c>
@@ -934,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41555</v>
       </c>
@@ -984,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41556</v>
       </c>
@@ -1025,7 +1032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41556</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41557</v>
       </c>
@@ -1113,7 +1120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41557</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41557</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41557</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41557</v>
       </c>
@@ -1324,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41557</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41557</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41559</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41559</v>
       </c>
@@ -1506,7 +1513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41559</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41559</v>
       </c>
@@ -1594,7 +1601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41559</v>
       </c>
@@ -1638,7 +1645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41561</v>
       </c>
@@ -1682,7 +1689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41561</v>
       </c>
@@ -1723,7 +1730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41561</v>
       </c>
@@ -1764,10 +1771,10 @@
         <v>11</v>
       </c>
       <c r="N27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41562</v>
       </c>
@@ -1775,7 +1782,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28">
         <v>71</v>
@@ -1808,10 +1815,10 @@
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41562</v>
       </c>
@@ -1852,10 +1859,10 @@
         <v>11</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41562</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>73</v>
@@ -1896,10 +1903,10 @@
         <v>11</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41562</v>
       </c>
@@ -1940,10 +1947,10 @@
         <v>11</v>
       </c>
       <c r="N31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41563</v>
       </c>
@@ -1981,13 +1988,13 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" t="s">
         <v>50</v>
       </c>
-      <c r="N32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41563</v>
       </c>
@@ -2028,10 +2035,10 @@
         <v>11</v>
       </c>
       <c r="N33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41563</v>
       </c>
@@ -2072,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41563</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41564</v>
       </c>
@@ -2124,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>78</v>
@@ -2157,10 +2164,10 @@
         <v>11</v>
       </c>
       <c r="N36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41564</v>
       </c>
@@ -2168,7 +2175,7 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>80</v>
@@ -2201,10 +2208,10 @@
         <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41564</v>
       </c>
@@ -2212,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>79</v>
@@ -2242,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41568</v>
       </c>
@@ -2289,7 +2296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41568</v>
       </c>
@@ -2330,7 +2337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41568</v>
       </c>
@@ -2371,10 +2378,10 @@
         <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41568</v>
       </c>
@@ -2412,13 +2419,13 @@
         <v>106</v>
       </c>
       <c r="M42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41569</v>
       </c>
@@ -2462,7 +2469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41569</v>
       </c>
@@ -2506,7 +2513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41569</v>
       </c>
@@ -2547,7 +2554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41570</v>
       </c>
@@ -2588,18 +2595,18 @@
         <v>11</v>
       </c>
       <c r="N46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41570</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
         <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
       </c>
       <c r="D47">
         <v>90</v>
@@ -2632,10 +2639,10 @@
         <v>11</v>
       </c>
       <c r="N47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41570</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41570</v>
       </c>
@@ -2717,7 +2724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41570</v>
       </c>
@@ -2755,13 +2762,13 @@
         <v>323</v>
       </c>
       <c r="M50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>41571</v>
       </c>
@@ -2769,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51">
         <v>93</v>
@@ -2802,18 +2809,18 @@
         <v>11</v>
       </c>
       <c r="N51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41571</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>67</v>
       </c>
       <c r="D52">
         <v>94</v>
@@ -2846,18 +2853,11 @@
         <v>11</v>
       </c>
       <c r="N52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N52">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="."/>
-        <filter val="No/Maybe"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N52"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/raw-data-prep/raw_data/Note_sheet_CH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_CH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard\Documents\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhilga\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,39 +658,38 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>2134</v>
+        <v>981</v>
       </c>
       <c r="K2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -700,38 +699,39 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>981</v>
+        <v>2134</v>
       </c>
       <c r="K3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L3">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -782,40 +782,43 @@
         <v>41555</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>1060</v>
+        <v>266</v>
       </c>
       <c r="K5">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -829,37 +832,34 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>248</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>441</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
       <c r="J6">
-        <v>266</v>
+        <v>1693</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
-      </c>
-      <c r="N6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -867,37 +867,37 @@
         <v>41555</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>248</v>
+        <v>507</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>1693</v>
+        <v>1060</v>
       </c>
       <c r="K7">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="L7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
@@ -905,90 +905,90 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41556</v>
+        <v>41555</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>232</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>513</v>
-      </c>
-      <c r="I8">
-        <v>17</v>
-      </c>
       <c r="J8">
-        <v>2982</v>
+        <v>1297</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41555</v>
+        <v>41556</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>232</v>
+        <v>513</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>1297</v>
+        <v>2982</v>
       </c>
       <c r="K9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L9">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -999,37 +999,40 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>512</v>
+        <v>390</v>
       </c>
       <c r="I10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>1003</v>
+        <v>1294</v>
       </c>
       <c r="K10">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1040,40 +1043,37 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J11">
-        <v>1294</v>
+        <v>1003</v>
       </c>
       <c r="K11">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>11</v>
-      </c>
-      <c r="N11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1166,43 +1166,43 @@
         <v>41557</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14">
-        <v>2257</v>
+        <v>1586</v>
       </c>
       <c r="K14">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1210,43 +1210,43 @@
         <v>41557</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J15">
-        <v>1586</v>
+        <v>2257</v>
       </c>
       <c r="K15">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1477,40 +1477,40 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>243</v>
+        <v>500</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J21">
-        <v>402</v>
+        <v>573</v>
       </c>
       <c r="K21">
-        <v>104</v>
+        <v>365</v>
       </c>
       <c r="L21">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1518,43 +1518,43 @@
         <v>41559</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1472</v>
+        <v>402</v>
       </c>
       <c r="K22">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="L22">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1568,28 +1568,28 @@
         <v>38</v>
       </c>
       <c r="D23">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J23">
-        <v>573</v>
+        <v>2453</v>
       </c>
       <c r="K23">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1606,43 +1606,43 @@
         <v>41559</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>567</v>
+        <v>326</v>
       </c>
       <c r="I24">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J24">
-        <v>2453</v>
+        <v>1472</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="N24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1782,40 +1782,40 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="I28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J28">
-        <v>482</v>
+        <v>1305</v>
       </c>
       <c r="K28">
-        <v>317</v>
+        <v>147</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="N28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1826,40 +1826,40 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>399</v>
+        <v>501</v>
       </c>
       <c r="I29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J29">
-        <v>1305</v>
+        <v>482</v>
       </c>
       <c r="K29">
-        <v>147</v>
+        <v>317</v>
       </c>
       <c r="L29">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1870,40 +1870,40 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="I30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>1403</v>
+        <v>1238</v>
       </c>
       <c r="K30">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="M30" t="s">
         <v>11</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1914,40 +1914,40 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J31">
-        <v>1238</v>
+        <v>1403</v>
       </c>
       <c r="K31">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="L31">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
         <v>11</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2175,40 +2175,40 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>414</v>
+        <v>568</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J37">
-        <v>1434</v>
+        <v>1105</v>
       </c>
       <c r="K37">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="L37">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2219,40 +2219,40 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>568</v>
+        <v>414</v>
       </c>
       <c r="I38">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J38">
-        <v>1105</v>
+        <v>1434</v>
       </c>
       <c r="K38">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="M38" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2263,34 +2263,34 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>287</v>
+        <v>481</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J39">
-        <v>916</v>
+        <v>2412</v>
       </c>
       <c r="K39">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="L39">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="M39" t="s">
         <v>11</v>
@@ -2304,34 +2304,34 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>481</v>
+        <v>287</v>
       </c>
       <c r="I40">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J40">
-        <v>2412</v>
+        <v>916</v>
       </c>
       <c r="K40">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="M40" t="s">
         <v>11</v>
@@ -2603,43 +2603,40 @@
         <v>41570</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>258</v>
+        <v>483</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J47">
-        <v>1254</v>
+        <v>779</v>
       </c>
       <c r="K47">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="L47">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2647,40 +2644,43 @@
         <v>41570</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>90</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="D48">
+      <c r="H48">
+        <v>258</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>1254</v>
+      </c>
+      <c r="K48">
         <v>89</v>
       </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>483</v>
-      </c>
-      <c r="I48">
-        <v>14</v>
-      </c>
-      <c r="J48">
-        <v>779</v>
-      </c>
-      <c r="K48">
-        <v>229</v>
-      </c>
       <c r="L48">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="N48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N52"/>
+  <autoFilter ref="A1:N52">
+    <sortState ref="A2:N52">
+      <sortCondition ref="D1:D52"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/raw-data-prep/raw_data/Note_sheet_CH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_CH.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhilga\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="11310"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,37 +225,37 @@
     <t xml:space="preserve">A distraction assignment form was misfiled in the essay eval folder. I accidentally grabbed one and placed infront of participant with confed essay. I quickly noticed and grabbed it before participant could read or grab it, said "whoops wrong paper. Brb." Essay had certain parts underlined in red? Subject commented on it in evaluation. Study about?: Aggressiveness with video. Suspicious? Nothing seemed suspicious. </t>
   </si>
   <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 6</t>
-  </si>
-  <si>
-    <t>Good Session</t>
-  </si>
-  <si>
     <t>Notes_t</t>
   </si>
   <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Good session. </t>
+  </si>
+  <si>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>goodSession</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,28 +621,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
         <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1771,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="N27" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">

--- a/raw-data-prep/raw_data/Note_sheet_CH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_CH.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhilga\Documents\Github\vg-dissertation\raw-data-prep\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="480" yWindow="110" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -66,24 +71,6 @@
     <t xml:space="preserve">Didn't know what we were trying to investigate in study. </t>
   </si>
   <si>
-    <t>5:15PM</t>
-  </si>
-  <si>
-    <t>5:00PM</t>
-  </si>
-  <si>
-    <t>6:00PM</t>
-  </si>
-  <si>
-    <t>3:15PM</t>
-  </si>
-  <si>
-    <t>4:15PM</t>
-  </si>
-  <si>
-    <t>3:30PM</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -96,21 +83,12 @@
     <t xml:space="preserve">Was talking to participant 56 before the study. Seemed to finish essay before 5 minutes was up. I noted that he was having trouble with the single shooter gun, so I told him he could access the machine gun by flicking the mouse wheel. </t>
   </si>
   <si>
-    <t>4:30PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Participants chatted in the waiting room for a couple of minutes before we were able to take them to rooms. Seemed friendly to each other. Thinks the study is about distractions, violence and videogames. Said notheing seemed suspicious. </t>
   </si>
   <si>
-    <t>5:30PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Didn't write prolife or prochoice on top of the page. Reading his essay, he supported both sides some, but primarily pro-life. She said, "didn't like my essay, maybe I should have put full time." Answer to what we're studying: "No idea." Anything suspicious?: "Nothing." </t>
   </si>
   <si>
-    <t>6:30PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">When I talked with him after the study, he said he thought the feed back was suspicious. </t>
   </si>
   <si>
@@ -120,18 +98,12 @@
     <t xml:space="preserve">This participant yelled "Meanie!" after seeing his essay feedback, so #60 may have heard this. Good session for this participant. He figured out the essay was fake only after seeing debriefing questions. </t>
   </si>
   <si>
-    <t>12:00PM</t>
-  </si>
-  <si>
     <t>Essay was suspicious, nothing else but partner was suspicious (63).</t>
   </si>
   <si>
     <t xml:space="preserve">Found nothing suspicious. </t>
   </si>
   <si>
-    <t>2:00PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">No suspicions. </t>
   </si>
   <si>
@@ -150,9 +122,6 @@
     <t xml:space="preserve">Wanted a more violent game. </t>
   </si>
   <si>
-    <t>6:15PM</t>
-  </si>
-  <si>
     <t>JH</t>
   </si>
   <si>
@@ -201,9 +170,6 @@
     <t xml:space="preserve">Once I told him we were (?) the distraction party, he said that's when he knew it wasn't real, but that he believed everything. </t>
   </si>
   <si>
-    <t>4:15pm</t>
-  </si>
-  <si>
     <t>jc</t>
   </si>
   <si>
@@ -214,9 +180,6 @@
   </si>
   <si>
     <t xml:space="preserve">Thought essay topic was suspicious--said topic could evoke harsh criticism just for the disagreement. I think he believed it was really evaluated by other participant. Did not know that we were studying. </t>
-  </si>
-  <si>
-    <t>3:30pm</t>
   </si>
   <si>
     <t>sc</t>
@@ -255,7 +218,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,7 +254,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,12 +562,15 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M1"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,36 +590,36 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>41554</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="2">
+        <v>0.71875</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -686,12 +655,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>41554</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="2">
+        <v>0.71875</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -728,12 +697,12 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>41555</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
+      <c r="B4" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -772,12 +741,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>41555</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
+      <c r="B5" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -816,12 +785,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>41555</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
+      <c r="B6" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -857,12 +826,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>41555</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
+      <c r="B7" s="2">
+        <v>0.75</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -898,12 +867,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>41555</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
+      <c r="B8" s="2">
+        <v>0.63541666666666663</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -942,12 +911,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>41556</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
+      <c r="B9" s="2">
+        <v>0.63541666666666663</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -980,18 +949,18 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>41556</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+      <c r="B10" s="2">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1030,12 +999,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>41556</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
+      <c r="B11" s="2">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1071,15 +1040,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>41557</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
+      <c r="B12" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>54</v>
@@ -1112,18 +1081,18 @@
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>41557</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
+      <c r="B13" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>55</v>
@@ -1156,15 +1125,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>41557</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
+      <c r="B14" s="2">
+        <v>0.6875</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>56</v>
@@ -1197,18 +1166,18 @@
         <v>11</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>41557</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
+      <c r="B15" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>57</v>
@@ -1241,18 +1210,18 @@
         <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>41557</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
+      <c r="B16" s="2">
+        <v>0.72916666666666663</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>58</v>
@@ -1285,18 +1254,18 @@
         <v>11</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>41557</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
+      <c r="B17" s="2">
+        <v>0.77083333333333337</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>59</v>
@@ -1326,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>41557</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
+      <c r="B18" s="2">
+        <v>0.77083333333333337</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -1373,18 +1342,18 @@
         <v>11</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>41557</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
+      <c r="B19" s="2">
+        <v>0.77083333333333337</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>61</v>
@@ -1417,15 +1386,15 @@
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>41559</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>33</v>
+      <c r="B20" s="2">
+        <v>0.5</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1461,18 +1430,18 @@
         <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41559</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
+      <c r="B21" s="2">
+        <v>0.5</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>63</v>
@@ -1502,18 +1471,18 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>41559</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
+      <c r="B22" s="2">
+        <v>0.5</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1549,18 +1518,18 @@
         <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>41559</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
+      <c r="B23" s="2">
+        <v>0.5</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>65</v>
@@ -1590,18 +1559,18 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>41559</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
+      <c r="B24" s="2">
+        <v>0.58333333333333337</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1637,15 +1606,15 @@
         <v>11</v>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>41561</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
+      <c r="B25" s="2">
+        <v>0.71875</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1681,15 +1650,15 @@
         <v>11</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>41561</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
+      <c r="B26" s="2">
+        <v>0.71875</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1725,12 +1694,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>41561</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>43</v>
+      <c r="B27" s="2">
+        <v>0.76041666666666663</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1766,15 +1735,15 @@
         <v>11</v>
       </c>
       <c r="N27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>41562</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
+      <c r="B28" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1810,18 +1779,18 @@
         <v>11</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>41562</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
+      <c r="B29" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>71</v>
@@ -1851,18 +1820,18 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>41562</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
+      <c r="B30" s="2">
+        <v>0.75</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1898,18 +1867,18 @@
         <v>11</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>41562</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
+      <c r="B31" s="2">
+        <v>0.75</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>73</v>
@@ -1942,15 +1911,15 @@
         <v>11</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>41563</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
+      <c r="B32" s="2">
+        <v>0.63541666666666663</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1983,18 +1952,18 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>41563</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>19</v>
+      <c r="B33" s="2">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -2030,15 +1999,15 @@
         <v>11</v>
       </c>
       <c r="N33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>41563</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>19</v>
+      <c r="B34" s="2">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -2071,18 +2040,18 @@
         <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>41563</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>15</v>
+      <c r="B35" s="2">
+        <v>0.71875</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -2118,15 +2087,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>41564</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
+      <c r="B36" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <v>78</v>
@@ -2159,18 +2128,18 @@
         <v>11</v>
       </c>
       <c r="N36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>41564</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>25</v>
+      <c r="B37" s="2">
+        <v>0.6875</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>79</v>
@@ -2200,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>41564</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>25</v>
+      <c r="B38" s="2">
+        <v>0.6875</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <v>80</v>
@@ -2244,18 +2213,18 @@
         <v>115</v>
       </c>
       <c r="M38" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>41568</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
+      <c r="B39" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -2291,12 +2260,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>41568</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
+      <c r="B40" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -2332,12 +2301,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>41568</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
+      <c r="B41" s="2">
+        <v>0.75</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -2370,18 +2339,18 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41568</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
+      <c r="B42" s="2">
+        <v>0.75</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2414,18 +2383,18 @@
         <v>106</v>
       </c>
       <c r="M42" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41569</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
+      <c r="B43" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -2461,15 +2430,15 @@
         <v>11</v>
       </c>
       <c r="N43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>41569</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
+      <c r="B44" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -2505,15 +2474,15 @@
         <v>11</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>41569</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>17</v>
+      <c r="B45" s="2">
+        <v>0.75</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2549,12 +2518,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>41570</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>18</v>
+      <c r="B46" s="2">
+        <v>0.63541666666666663</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -2590,15 +2559,15 @@
         <v>11</v>
       </c>
       <c r="N46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41570</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>19</v>
+      <c r="B47" s="2">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -2631,18 +2600,18 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>41570</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>60</v>
+      <c r="B48" s="2">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D48">
         <v>90</v>
@@ -2675,15 +2644,15 @@
         <v>11</v>
       </c>
       <c r="N48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>41570</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>15</v>
+      <c r="B49" s="2">
+        <v>0.71875</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -2719,12 +2688,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>41570</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>15</v>
+      <c r="B50" s="2">
+        <v>0.71875</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2757,21 +2726,21 @@
         <v>323</v>
       </c>
       <c r="M50" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>41571</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>20</v>
+      <c r="B51" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D51">
         <v>93</v>
@@ -2804,18 +2773,18 @@
         <v>11</v>
       </c>
       <c r="N51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>41571</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>65</v>
+      <c r="B52" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <v>94</v>
@@ -2848,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="N52" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2858,6 +2827,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2867,7 +2837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2879,7 +2849,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
